--- a/October'21/17.10.2021/Bank Statement October-2021.xlsx
+++ b/October'21/17.10.2021/Bank Statement October-2021.xlsx
@@ -3512,6 +3512,33 @@
     <xf numFmtId="0" fontId="60" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3536,12 +3563,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3561,24 +3582,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3777,9 +3780,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4314,70 +4314,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="344"/>
+      <c r="O1" s="344"/>
+      <c r="P1" s="344"/>
+      <c r="Q1" s="344"/>
+      <c r="R1" s="344"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
+      <c r="Q2" s="345"/>
+      <c r="R2" s="345"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="352" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="347"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="354"/>
       <c r="T3" s="69"/>
       <c r="U3" s="70"/>
       <c r="V3" s="70"/>
@@ -4386,55 +4386,55 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="337" t="s">
+      <c r="A4" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="339" t="s">
+      <c r="B4" s="348" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="339" t="s">
+      <c r="C4" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="333" t="s">
+      <c r="D4" s="342" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="342" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="333" t="s">
+      <c r="F4" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="333" t="s">
+      <c r="G4" s="342" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="333" t="s">
+      <c r="H4" s="342" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="333" t="s">
+      <c r="I4" s="342" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="333" t="s">
+      <c r="J4" s="342" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="348" t="s">
+      <c r="K4" s="355" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="341" t="s">
+      <c r="L4" s="334" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="350" t="s">
+      <c r="M4" s="336" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="352" t="s">
+      <c r="N4" s="338" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="354" t="s">
+      <c r="O4" s="340" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="341" t="s">
+      <c r="P4" s="334" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="343" t="s">
+      <c r="Q4" s="350" t="s">
         <v>201</v>
       </c>
       <c r="R4" s="194" t="s">
@@ -4447,23 +4447,23 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="338"/>
-      <c r="B5" s="340"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="349"/>
-      <c r="L5" s="342"/>
-      <c r="M5" s="351"/>
-      <c r="N5" s="353"/>
-      <c r="O5" s="355"/>
-      <c r="P5" s="342"/>
-      <c r="Q5" s="344"/>
+      <c r="A5" s="347"/>
+      <c r="B5" s="349"/>
+      <c r="C5" s="349"/>
+      <c r="D5" s="343"/>
+      <c r="E5" s="343"/>
+      <c r="F5" s="343"/>
+      <c r="G5" s="343"/>
+      <c r="H5" s="343"/>
+      <c r="I5" s="343"/>
+      <c r="J5" s="343"/>
+      <c r="K5" s="356"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="337"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="335"/>
+      <c r="Q5" s="351"/>
       <c r="R5" s="195" t="s">
         <v>29</v>
       </c>
@@ -7459,14 +7459,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7479,6 +7471,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7505,12 +7505,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="356" t="s">
+      <c r="A1" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="358"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="359"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -7525,12 +7525,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="360" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
+      <c r="B2" s="360"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -9502,7 +9502,7 @@
   <dimension ref="B1:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9527,37 +9527,37 @@
       <c r="H1" s="224"/>
     </row>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="367" t="s">
+      <c r="B2" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="368"/>
-      <c r="F2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="370"/>
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
       <c r="J2" s="91"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="371" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="373"/>
       <c r="H3" s="91"/>
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="373" t="s">
+      <c r="B4" s="374" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="375"/>
+      <c r="C4" s="375"/>
+      <c r="D4" s="375"/>
+      <c r="E4" s="375"/>
+      <c r="F4" s="376"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="254" t="s">
@@ -9582,7 +9582,7 @@
       <c r="C6" s="283">
         <v>300000</v>
       </c>
-      <c r="D6" s="365"/>
+      <c r="D6" s="366"/>
       <c r="E6" s="285" t="s">
         <v>0</v>
       </c>
@@ -9598,7 +9598,7 @@
       <c r="C7" s="284">
         <v>25000</v>
       </c>
-      <c r="D7" s="365"/>
+      <c r="D7" s="366"/>
       <c r="E7" s="285" t="s">
         <v>137</v>
       </c>
@@ -9614,7 +9614,7 @@
       <c r="C8" s="305">
         <v>2000000</v>
       </c>
-      <c r="D8" s="365"/>
+      <c r="D8" s="366"/>
       <c r="E8" s="287" t="s">
         <v>1</v>
       </c>
@@ -9622,11 +9622,11 @@
         <v>1053611.55</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="K8" s="376" t="s">
+      <c r="K8" s="377" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="377"/>
-      <c r="M8" s="378"/>
+      <c r="L8" s="378"/>
+      <c r="M8" s="379"/>
     </row>
     <row r="9" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="279" t="s">
@@ -9635,7 +9635,7 @@
       <c r="C9" s="292">
         <v>2000000</v>
       </c>
-      <c r="D9" s="365"/>
+      <c r="D9" s="366"/>
       <c r="E9" s="288" t="s">
         <v>4</v>
       </c>
@@ -9660,7 +9660,7 @@
       <c r="C10" s="293">
         <v>28130</v>
       </c>
-      <c r="D10" s="365"/>
+      <c r="D10" s="366"/>
       <c r="E10" s="288" t="s">
         <v>2</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>213</v>
       </c>
       <c r="C11" s="293"/>
-      <c r="D11" s="365"/>
+      <c r="D11" s="366"/>
       <c r="E11" s="290" t="s">
         <v>178</v>
       </c>
@@ -9709,7 +9709,7 @@
         <f>C10+C11</f>
         <v>28130</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="366"/>
       <c r="E12" s="289" t="s">
         <v>7</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="C13" s="293">
         <v>37756.735000000001</v>
       </c>
-      <c r="D13" s="365"/>
+      <c r="D13" s="366"/>
       <c r="E13" s="289" t="s">
         <v>179</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>216</v>
       </c>
       <c r="C14" s="295"/>
-      <c r="D14" s="365"/>
+      <c r="D14" s="366"/>
       <c r="E14" s="288" t="s">
         <v>5</v>
       </c>
@@ -9765,7 +9765,7 @@
         <f>C13+C14</f>
         <v>37756.735000000001</v>
       </c>
-      <c r="D15" s="365"/>
+      <c r="D15" s="366"/>
       <c r="E15" s="288" t="s">
         <v>180</v>
       </c>
@@ -9791,7 +9791,7 @@
         <f>C15-C12</f>
         <v>9626.7350000000006</v>
       </c>
-      <c r="D16" s="365"/>
+      <c r="D16" s="366"/>
       <c r="E16" s="290" t="s">
         <v>187</v>
       </c>
@@ -9808,7 +9808,7 @@
       <c r="C17" s="298">
         <v>0</v>
       </c>
-      <c r="D17" s="365"/>
+      <c r="D17" s="366"/>
       <c r="E17" s="291"/>
       <c r="F17" s="302"/>
       <c r="G17" s="19"/>
@@ -9830,7 +9830,7 @@
         <f>C9+C13-C12+C17</f>
         <v>2009626.7350000001</v>
       </c>
-      <c r="D18" s="366"/>
+      <c r="D18" s="367"/>
       <c r="E18" s="311" t="s">
         <v>3</v>
       </c>
@@ -9850,24 +9850,24 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="362" t="s">
+      <c r="B19" s="363" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="363"/>
-      <c r="D19" s="363"/>
-      <c r="E19" s="363"/>
-      <c r="F19" s="364"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="364"/>
+      <c r="F19" s="365"/>
       <c r="G19" s="19"/>
       <c r="K19" s="101"/>
       <c r="L19" s="101"/>
       <c r="M19" s="127"/>
     </row>
     <row r="20" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="379"/>
-      <c r="C20" s="380"/>
-      <c r="D20" s="380"/>
-      <c r="E20" s="380"/>
-      <c r="F20" s="381"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="381"/>
+      <c r="D20" s="381"/>
+      <c r="E20" s="381"/>
+      <c r="F20" s="382"/>
       <c r="G20" s="20"/>
       <c r="K20" s="128"/>
       <c r="L20" s="128"/>
@@ -10120,7 +10120,7 @@
       <c r="K44" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="L44" s="422" t="s">
+      <c r="L44" s="333" t="s">
         <v>239</v>
       </c>
       <c r="M44" s="317">
@@ -10131,7 +10131,7 @@
       <c r="K45" s="317" t="s">
         <v>193</v>
       </c>
-      <c r="L45" s="422" t="s">
+      <c r="L45" s="333" t="s">
         <v>235</v>
       </c>
       <c r="M45" s="317">
@@ -10142,7 +10142,7 @@
       <c r="K46" s="317" t="s">
         <v>195</v>
       </c>
-      <c r="L46" s="422" t="s">
+      <c r="L46" s="333" t="s">
         <v>240</v>
       </c>
       <c r="M46" s="317">
@@ -10254,10 +10254,10 @@
       <c r="C55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
-      <c r="K55" s="360" t="s">
+      <c r="K55" s="361" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="361"/>
+      <c r="L55" s="362"/>
       <c r="M55" s="259">
         <f>SUM(M10:M54)</f>
         <v>323618</v>
@@ -10936,119 +10936,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="389" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
-      <c r="N1" s="388"/>
-      <c r="O1" s="388"/>
-      <c r="P1" s="388"/>
-      <c r="Q1" s="388"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="389"/>
+      <c r="O1" s="389"/>
+      <c r="P1" s="389"/>
+      <c r="Q1" s="389"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
-      <c r="N2" s="388"/>
-      <c r="O2" s="388"/>
-      <c r="P2" s="388"/>
-      <c r="Q2" s="388"/>
+      <c r="A2" s="389"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="389"/>
+      <c r="H2" s="389"/>
+      <c r="I2" s="389"/>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
+      <c r="N2" s="389"/>
+      <c r="O2" s="389"/>
+      <c r="P2" s="389"/>
+      <c r="Q2" s="389"/>
     </row>
     <row r="3" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="390" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
-      <c r="Q3" s="389"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
+      <c r="K3" s="390"/>
+      <c r="L3" s="390"/>
+      <c r="M3" s="390"/>
+      <c r="N3" s="390"/>
+      <c r="O3" s="390"/>
+      <c r="P3" s="390"/>
+      <c r="Q3" s="390"/>
     </row>
     <row r="4" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="390"/>
-      <c r="C4" s="390"/>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="390"/>
-      <c r="G4" s="390"/>
-      <c r="H4" s="390"/>
-      <c r="I4" s="390"/>
-      <c r="J4" s="390"/>
-      <c r="K4" s="390"/>
-      <c r="L4" s="390"/>
-      <c r="M4" s="390"/>
-      <c r="N4" s="390"/>
-      <c r="O4" s="390"/>
-      <c r="P4" s="390"/>
-      <c r="Q4" s="390"/>
+      <c r="B4" s="391"/>
+      <c r="C4" s="391"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
       <c r="U4" s="97">
         <v>2455</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="395" t="s">
+      <c r="A5" s="396" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="396"/>
-      <c r="C5" s="397"/>
+      <c r="B5" s="397"/>
+      <c r="C5" s="398"/>
       <c r="D5" s="236" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="236"/>
-      <c r="F5" s="391" t="s">
+      <c r="F5" s="392" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="392"/>
-      <c r="H5" s="392"/>
-      <c r="I5" s="392"/>
-      <c r="J5" s="392"/>
-      <c r="K5" s="392"/>
-      <c r="L5" s="392"/>
-      <c r="M5" s="392"/>
-      <c r="N5" s="392"/>
-      <c r="O5" s="392"/>
-      <c r="P5" s="392"/>
-      <c r="Q5" s="393"/>
-      <c r="T5" s="385" t="s">
+      <c r="G5" s="393"/>
+      <c r="H5" s="393"/>
+      <c r="I5" s="393"/>
+      <c r="J5" s="393"/>
+      <c r="K5" s="393"/>
+      <c r="L5" s="393"/>
+      <c r="M5" s="393"/>
+      <c r="N5" s="393"/>
+      <c r="O5" s="393"/>
+      <c r="P5" s="393"/>
+      <c r="Q5" s="394"/>
+      <c r="T5" s="386" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="386"/>
-      <c r="V5" s="387"/>
+      <c r="U5" s="387"/>
+      <c r="V5" s="388"/>
     </row>
     <row r="6" spans="1:22" s="230" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="248" t="s">
@@ -11568,11 +11568,11 @@
       </c>
       <c r="P19" s="115"/>
       <c r="Q19" s="120"/>
-      <c r="T19" s="394" t="s">
+      <c r="T19" s="395" t="s">
         <v>96</v>
       </c>
-      <c r="U19" s="394"/>
-      <c r="V19" s="394"/>
+      <c r="U19" s="395"/>
+      <c r="V19" s="395"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="102">
@@ -11870,11 +11870,11 @@
       <c r="Q28" s="120"/>
     </row>
     <row r="29" spans="1:22" s="104" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="382" t="s">
+      <c r="A29" s="383" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="383"/>
-      <c r="C29" s="384"/>
+      <c r="B29" s="384"/>
+      <c r="C29" s="385"/>
       <c r="D29" s="129">
         <f t="shared" ref="D29:P29" si="1">SUM(D7:D28)</f>
         <v>0</v>
@@ -12622,61 +12622,61 @@
   <sheetData>
     <row r="1" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="401"/>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="401"/>
-      <c r="S2" s="401"/>
-      <c r="T2" s="401"/>
-      <c r="U2" s="401"/>
-      <c r="V2" s="401"/>
-      <c r="W2" s="401"/>
-      <c r="X2" s="402"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="402"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="402"/>
+      <c r="J2" s="402"/>
+      <c r="K2" s="402"/>
+      <c r="L2" s="402"/>
+      <c r="M2" s="402"/>
+      <c r="N2" s="402"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="402"/>
+      <c r="Q2" s="402"/>
+      <c r="R2" s="402"/>
+      <c r="S2" s="402"/>
+      <c r="T2" s="402"/>
+      <c r="U2" s="402"/>
+      <c r="V2" s="402"/>
+      <c r="W2" s="402"/>
+      <c r="X2" s="403"/>
       <c r="Y2" s="138"/>
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="405" t="s">
+      <c r="B3" s="406" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="406"/>
-      <c r="D3" s="406"/>
-      <c r="E3" s="406"/>
-      <c r="F3" s="407"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="403" t="s">
+      <c r="C3" s="407"/>
+      <c r="D3" s="407"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="408"/>
+      <c r="G3" s="410"/>
+      <c r="H3" s="410"/>
+      <c r="I3" s="410"/>
+      <c r="J3" s="410"/>
+      <c r="K3" s="410"/>
+      <c r="L3" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="403"/>
-      <c r="N3" s="403"/>
-      <c r="O3" s="403"/>
-      <c r="P3" s="403"/>
-      <c r="Q3" s="403"/>
-      <c r="R3" s="403"/>
-      <c r="S3" s="403"/>
-      <c r="T3" s="403"/>
-      <c r="U3" s="403"/>
-      <c r="V3" s="403"/>
-      <c r="W3" s="403"/>
-      <c r="X3" s="404"/>
+      <c r="M3" s="404"/>
+      <c r="N3" s="404"/>
+      <c r="O3" s="404"/>
+      <c r="P3" s="404"/>
+      <c r="Q3" s="404"/>
+      <c r="R3" s="404"/>
+      <c r="S3" s="404"/>
+      <c r="T3" s="404"/>
+      <c r="U3" s="404"/>
+      <c r="V3" s="404"/>
+      <c r="W3" s="404"/>
+      <c r="X3" s="405"/>
       <c r="Y3" s="139"/>
       <c r="Z3" s="139"/>
       <c r="AA3" s="139"/>
@@ -12687,42 +12687,42 @@
     </row>
     <row r="4" spans="2:31" s="97" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="227"/>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="399" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398" t="s">
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="398" t="s">
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
+      <c r="I4" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="398"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="398" t="s">
+      <c r="J4" s="399"/>
+      <c r="K4" s="399"/>
+      <c r="L4" s="399" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="398"/>
-      <c r="N4" s="398"/>
-      <c r="O4" s="398" t="s">
+      <c r="M4" s="399"/>
+      <c r="N4" s="399"/>
+      <c r="O4" s="399" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="398"/>
-      <c r="Q4" s="398"/>
-      <c r="R4" s="398" t="s">
+      <c r="P4" s="399"/>
+      <c r="Q4" s="399"/>
+      <c r="R4" s="399" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="398"/>
-      <c r="T4" s="398"/>
-      <c r="U4" s="398" t="s">
+      <c r="S4" s="399"/>
+      <c r="T4" s="399"/>
+      <c r="U4" s="399" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="398"/>
-      <c r="W4" s="398"/>
-      <c r="X4" s="408" t="s">
+      <c r="V4" s="399"/>
+      <c r="W4" s="399"/>
+      <c r="X4" s="409" t="s">
         <v>90</v>
       </c>
       <c r="Y4" s="139"/>
@@ -12800,7 +12800,7 @@
       <c r="W5" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="X5" s="408"/>
+      <c r="X5" s="409"/>
       <c r="Y5" s="139"/>
       <c r="Z5" s="139"/>
       <c r="AA5" s="139"/>
@@ -13918,14 +13918,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="389" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
       <c r="G1" s="188"/>
       <c r="H1" s="188"/>
       <c r="I1" s="188"/>
@@ -13939,12 +13939,12 @@
       <c r="Q1" s="188"/>
     </row>
     <row r="2" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
+      <c r="A2" s="389"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
       <c r="G2" s="188"/>
       <c r="H2" s="188"/>
       <c r="I2" s="188"/>
@@ -13958,14 +13958,14 @@
       <c r="Q2" s="188"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="390" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
       <c r="G3" s="189"/>
       <c r="H3" s="189"/>
       <c r="I3" s="189"/>
@@ -13979,14 +13979,14 @@
       <c r="Q3" s="189"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="390"/>
-      <c r="C4" s="390"/>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="390"/>
+      <c r="B4" s="391"/>
+      <c r="C4" s="391"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
       <c r="G4" s="187"/>
       <c r="H4" s="187"/>
       <c r="I4" s="187"/>
@@ -14003,17 +14003,17 @@
       <c r="A5" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="415" t="s">
+      <c r="B5" s="416" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="416"/>
+      <c r="C5" s="417"/>
       <c r="D5" s="217" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="410" t="s">
+      <c r="E5" s="411" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="411"/>
+      <c r="F5" s="412"/>
       <c r="G5" s="187"/>
       <c r="H5" s="187"/>
       <c r="I5" s="187"/>
@@ -14030,17 +14030,17 @@
       <c r="A6" s="218" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="412" t="s">
+      <c r="B6" s="413" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="412"/>
+      <c r="C6" s="413"/>
       <c r="D6" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="413" t="s">
+      <c r="E6" s="414" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="414"/>
+      <c r="F6" s="415"/>
       <c r="G6" s="187"/>
       <c r="H6" s="187"/>
       <c r="I6" s="187"/>
@@ -14828,94 +14828,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="389" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
-      <c r="N1" s="388"/>
-      <c r="O1" s="388"/>
-      <c r="P1" s="388"/>
-      <c r="Q1" s="388"/>
-      <c r="R1" s="388"/>
-      <c r="S1" s="388"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="389"/>
+      <c r="O1" s="389"/>
+      <c r="P1" s="389"/>
+      <c r="Q1" s="389"/>
+      <c r="R1" s="389"/>
+      <c r="S1" s="389"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
-      <c r="N2" s="388"/>
-      <c r="O2" s="388"/>
-      <c r="P2" s="388"/>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="388"/>
-      <c r="S2" s="388"/>
+      <c r="A2" s="389"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="389"/>
+      <c r="H2" s="389"/>
+      <c r="I2" s="389"/>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
+      <c r="N2" s="389"/>
+      <c r="O2" s="389"/>
+      <c r="P2" s="389"/>
+      <c r="Q2" s="389"/>
+      <c r="R2" s="389"/>
+      <c r="S2" s="389"/>
     </row>
     <row r="3" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="390" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
-      <c r="Q3" s="389"/>
-      <c r="R3" s="389"/>
-      <c r="S3" s="389"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
+      <c r="K3" s="390"/>
+      <c r="L3" s="390"/>
+      <c r="M3" s="390"/>
+      <c r="N3" s="390"/>
+      <c r="O3" s="390"/>
+      <c r="P3" s="390"/>
+      <c r="Q3" s="390"/>
+      <c r="R3" s="390"/>
+      <c r="S3" s="390"/>
     </row>
     <row r="4" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="390"/>
-      <c r="C4" s="390"/>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="390"/>
-      <c r="G4" s="390"/>
-      <c r="H4" s="390"/>
-      <c r="I4" s="390"/>
-      <c r="J4" s="390"/>
-      <c r="K4" s="390"/>
-      <c r="L4" s="390"/>
-      <c r="M4" s="390"/>
-      <c r="N4" s="390"/>
-      <c r="O4" s="390"/>
-      <c r="P4" s="390"/>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="390"/>
-      <c r="S4" s="390"/>
+      <c r="B4" s="391"/>
+      <c r="C4" s="391"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="391"/>
     </row>
     <row r="5" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="264"/>
@@ -14939,9 +14939,9 @@
       <c r="S5" s="262"/>
       <c r="T5" s="265"/>
       <c r="U5" s="265"/>
-      <c r="V5" s="390"/>
-      <c r="W5" s="390"/>
-      <c r="X5" s="390"/>
+      <c r="V5" s="391"/>
+      <c r="W5" s="391"/>
+      <c r="X5" s="391"/>
       <c r="Y5" s="265"/>
       <c r="Z5" s="265"/>
       <c r="AA5" s="265"/>
@@ -15231,9 +15231,9 @@
       <c r="S10" s="260"/>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
-      <c r="V10" s="417"/>
-      <c r="W10" s="417"/>
-      <c r="X10" s="417"/>
+      <c r="V10" s="418"/>
+      <c r="W10" s="418"/>
+      <c r="X10" s="418"/>
       <c r="Y10" s="47"/>
       <c r="Z10" s="47"/>
       <c r="AA10" s="47"/>
@@ -15398,9 +15398,9 @@
       <c r="S13" s="260"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
-      <c r="V13" s="417"/>
-      <c r="W13" s="417"/>
-      <c r="X13" s="417"/>
+      <c r="V13" s="418"/>
+      <c r="W13" s="418"/>
+      <c r="X13" s="418"/>
       <c r="Y13" s="47"/>
       <c r="Z13" s="47"/>
       <c r="AA13" s="47"/>
@@ -16088,9 +16088,9 @@
       <c r="AN27" s="47"/>
     </row>
     <row r="28" spans="1:40" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="418"/>
-      <c r="B28" s="418"/>
-      <c r="C28" s="418"/>
+      <c r="A28" s="419"/>
+      <c r="B28" s="419"/>
+      <c r="C28" s="419"/>
       <c r="D28" s="275"/>
       <c r="E28" s="275"/>
       <c r="F28" s="275"/>
@@ -17505,12 +17505,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="421" t="s">
+      <c r="A1" s="422" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
@@ -17713,10 +17713,10 @@
       <c r="D18" s="190"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="420" t="s">
+      <c r="A19" s="421" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="420"/>
+      <c r="B19" s="421"/>
       <c r="C19" s="318">
         <f>SUM(C3:C18)</f>
         <v>375379</v>
@@ -17859,8 +17859,8 @@
       <c r="C46" s="94"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="419"/>
-      <c r="B47" s="419"/>
+      <c r="A47" s="420"/>
+      <c r="B47" s="420"/>
       <c r="C47" s="8"/>
     </row>
   </sheetData>
